--- a/daily_matches/job_matches_2026-02-23.xlsx
+++ b/daily_matches/job_matches_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Systems Engineer, UDS Data Management - West</t>
+          <t>Senior Mobile Software Engineer (Full Stack)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dell Technologies</t>
+          <t>Sharetec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CA, US USA</t>
+          <t>Nashville, TN, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24.4</v>
+        <v>12.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, LLaMA, Prompt Engineering, TensorFlow, PyTorch, Redshift, BigQuery, Synapse</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, PostgreSQL, MongoDB, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6bf94c93449dfa3d</t>
+          <t>https://www.indeed.com/viewjob?jk=927f66c68876634e</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Systems Engineer, UDS Data Management - Central</t>
+          <t>Service Delivery Center - Microsoft Power Platform &amp; Copilot Engineer - Senior</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dell Technologies</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IL, US USA</t>
+          <t>Alpharetta, GA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24.4</v>
+        <v>10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, LLaMA, Prompt Engineering, TensorFlow, PyTorch, Redshift, BigQuery, Synapse</t>
+          <t>RAG, Copilot, AKS, Git, Power BI, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=23fa7ab7f29d61af</t>
+          <t>https://www.indeed.com/viewjob?jk=dba14496bf2d3822</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Systems Engineer, UDS Data Management - East</t>
+          <t>Service Delivery Center - Microsoft Power Platform &amp; Copilot Engineer - Analyst</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dell Technologies</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA, US USA</t>
+          <t>Alpharetta, GA, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24.4</v>
+        <v>10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, LLaMA, Prompt Engineering, TensorFlow, PyTorch, Redshift, BigQuery, Synapse</t>
+          <t>RAG, Copilot, AKS, Git, Power BI, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,182 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ff8fbb8c2cb45e2e</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Senior AI Engineer</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Texplorers Inc.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Lewisville, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>AI Engineer, Generative AI, RAG, Hugging Face, Prompt Engineering, TensorFlow, PyTorch, CI/CD, Python, R</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=9aa5392b1ae4eac1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Summer 2026 – Business Value Engineering &amp; Financial Analytics Intern (Master's)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cary, NC, US USA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Redshift, Git, Databricks, Redshift, Tableau, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=03cc8e157898599f</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Computer Vision Engineer</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SportsBiz Group Inc</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>US USA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PyTorch, OpenCV, S3, EC2, MLflow, Databricks, PySpark, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a5d516d199f412e9</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SAP iXp Intern - AI Machine Learning</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SAP</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Palo Alto, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Prompt Engineering, TensorFlow, PyTorch, Docker, R, Scala, A/B Testing</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=90785d4b0ecee872</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Kitchen Helper</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Daphne, AL, US USA</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, Git, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=fed55110419e5c18</t>
+          <t>https://www.indeed.com/viewjob?jk=964e7d50ab093cb2</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-23.xlsx
+++ b/daily_matches/job_matches_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,105 +473,245 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Mobile Software Engineer (Full Stack)</t>
+          <t>Software Engineer New</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sharetec</t>
+          <t>Convey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nashville, TN, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, PostgreSQL, MongoDB, SQL, R, Java, Scala</t>
+          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=927f66c68876634e</t>
+          <t>https://www.indeed.com/viewjob?jk=7f0c38e749fbda51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Service Delivery Center - Microsoft Power Platform &amp; Copilot Engineer - Senior</t>
+          <t>Senior Software Engineer New</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Convey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alpharetta, GA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, Copilot, AKS, Git, Power BI, SQL, R, Java, Scala</t>
+          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=dba14496bf2d3822</t>
+          <t>https://www.indeed.com/viewjob?jk=5a7e1e1ef2ff4bf9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Service Delivery Center - Microsoft Power Platform &amp; Copilot Engineer - Analyst</t>
+          <t>Senior Security Engineer – Cloud &amp; Data Security</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Sigma Computing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alpharetta, GA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, Copilot, AKS, Git, Power BI, SQL, R, Java, Scala</t>
+          <t>RAG, BigQuery, Kubernetes, CI/CD, Terraform, Snowflake, Databricks, BigQuery, Python, SQL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5d4ac754da67252d</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Technical Support Engineer</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sigma Computing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RAG, Redshift, BigQuery, Snowflake, Databricks, BigQuery, Redshift, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b94386ac1471ed5e</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Technical Support Engineer</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sigma Computing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RAG, Redshift, BigQuery, Snowflake, BigQuery, Redshift, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a01c49c40c088fe3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Senior Software Development Engineer - Advertising Technology</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Expedia Group</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, Databricks, PySpark, Kafka, R, Java, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=964e7d50ab093cb2</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5437a1b0e8faf95d</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ML / AI Infrastructure Engineering Intern</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arcline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LangChain, RAG, LLaMA, Copilot, Pinecone, FastAPI, Git, Python, R, Optimization</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=9afaefdf5d1354cd</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-23.xlsx
+++ b/daily_matches/job_matches_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Software Engineer New</t>
+          <t>Data Scientist - Kaggle Grandmaster</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Convey</t>
+          <t>YO IT CONSULTING</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.4</v>
+        <v>12.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7f0c38e749fbda51</t>
+          <t>https://www.indeed.com/viewjob?jk=382ed68c6be421a9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Software Engineer New</t>
+          <t>Data Scientist - Kaggle Grandmaster</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Convey</t>
+          <t>YO IT CONSULTING</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.4</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5a7e1e1ef2ff4bf9</t>
+          <t>https://www.indeed.com/viewjob?jk=627cfc3847a07be3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Security Engineer – Cloud &amp; Data Security</t>
+          <t>Data Scientist - Kaggle Grandmaster</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sigma Computing</t>
+          <t>YO IT CONSULTING</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Kubernetes, CI/CD, Terraform, Snowflake, Databricks, BigQuery, Python, SQL</t>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,24 +571,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5d4ac754da67252d</t>
+          <t>https://www.indeed.com/viewjob?jk=8c3e693503a2f491</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Technical Support Engineer</t>
+          <t>Data Scientist - Kaggle Grandmaster</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sigma Computing</t>
+          <t>YO IT CONSULTING</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, Redshift, BigQuery, Snowflake, Databricks, BigQuery, Redshift, Python, SQL, R</t>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b94386ac1471ed5e</t>
+          <t>https://www.indeed.com/viewjob?jk=47fc26ace33f4e57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Technical Support Engineer</t>
+          <t>Data Scientist - Kaggle Grandmaster</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sigma Computing</t>
+          <t>YO IT CONSULTING</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, Redshift, BigQuery, Snowflake, BigQuery, Redshift, Python, SQL, R, Scala</t>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,77 +641,987 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a01c49c40c088fe3</t>
+          <t>https://www.indeed.com/viewjob?jk=98982339150895a6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Software Development Engineer - Advertising Technology</t>
+          <t>Data Scientist - Kaggle Grandmaster</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Expedia Group</t>
+          <t>YO IT CONSULTING</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, Generative AI, Databricks, PySpark, Kafka, R, Java, Scala, Optimization</t>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5437a1b0e8faf95d</t>
+          <t>https://www.indeed.com/viewjob?jk=309f87cd1d128f5b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ML / AI Infrastructure Engineering Intern</t>
+          <t>Data Scientist - Kaggle Grandmaster</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arcline</t>
+          <t>YO IT CONSULTING</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=325a8c51c30cf1d5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d9d29b7e0b3cdd3d</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b35508015ceb239c</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=331f99049a5d1dae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=59b1ffe4fc565874</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=24051d8ef80e37dd</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=975af84117bd48cb</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=da9723a3cb997006</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2fbdd2a08360c65b</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8da24880aebfb290</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8500db98fb6bca16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f1d3eb5b6b7312c3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Data Scientist - Kaggle Grandmaster</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>YO IT CONSULTING</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=03a0717e81c9117f</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Senior Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Kubernetes, Python, R, Java</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2b05beae17f6dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Senior Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Palo Alto, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Kubernetes, Python, R, Java</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b09166cd6c260952</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Senior Systems Analyst</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Houston-Galveston Area Council</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Copilot, Synapse, Data Lake, Terraform, Git, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a2e29b7af96f5f4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>San Francisco, CA, US USA</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D24" t="n">
         <v>11.1</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LangChain, RAG, LLaMA, Copilot, Pinecone, FastAPI, Git, Python, R, Optimization</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=9afaefdf5d1354cd</t>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=29e4884190f9d7a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Oakland, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eadabb150b4442f0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chevy Chase, MD, US USA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f4da0f08be0e909f</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fort Worth, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=efaec18d25b07d81</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Washington, DC, US USA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c1cebc1bef750dca</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cde6c28d5dce5f78</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=aaea5358edb7c5ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Palo Alto, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a11b62e64d0be8e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Richardson, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5ba7b0ffd18b7ca7</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Falls Church, VA, US USA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b56c157ed6bcb260</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Senior .NET Backend Engineer - Billing Platform *Hybrid*</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GEICO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Baltimore, MD, US USA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, Kafka, NoSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=93133844d882af32</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-23.xlsx
+++ b/daily_matches/job_matches_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Solutions Architect</t>
+          <t>Sr Field Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BakerHostetler</t>
+          <t>Striim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cleveland, OH, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RAG, Data Lake, Kubernetes, AKS, CI/CD, GitHub Actions, Terraform, Git, SQL, R</t>
+          <t>RAG, BigQuery, Kubernetes, Git, Snowflake, Databricks, BigQuery, Kafka, MySQL, Python</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2b9840944141fbe6</t>
+          <t>https://www.indeed.com/viewjob?jk=9fd06b655c3730ee</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior ML Platform Engineer</t>
+          <t>Data Engineer II</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NVIDIA</t>
+          <t>Corteva Agriscience</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Santa Clara, CA, US USA</t>
+          <t>Indianapolis, IN, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Generative AI, Cortex, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Terraform, Git, Python</t>
+          <t>RAG, S3, EC2, FastAPI, Docker, Kubernetes, Git, Databricks, PySpark, Kafka</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,42 +536,252 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=062cd6698cf7e079</t>
+          <t>https://www.indeed.com/viewjob?jk=84bbb3c9d11dfa7f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Scientist - Kaggle Grandmaster</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>YO IT CONSULTING</t>
+          <t>project44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2ad7acbb70aad17a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>project44</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=166c9d26347adcb3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Senior AI Engineer</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Medica Services Company LLC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Minnetonka, MN, US USA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>12.2</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a4c5f2f4766a9526</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Docker, GitHub Actions, Terraform, Git, Python</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a79da7779f52d4b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kentan Staffing Solutions</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Melbourne, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Kubernetes, CI/CD, Terraform, Git, MongoDB, NoSQL, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ba7c1453cd1512f5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Junior Software Engineer</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kentan Staffing Solutions</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Melbourne, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Docker, Kubernetes, CI/CD, Git, MongoDB, NoSQL, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=726fbe9b2b7bd3f4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Agentic AI Engineer-1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Realign</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Boston, MA, US USA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Gemini, Copilot, Prompt Engineering, Python, R</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=28b1ed79dd102956</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Perception Engineer - Data</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forterra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Arlington, VA, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R, Optimization</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=24a4bdf67e7eef3b</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-23.xlsx
+++ b/daily_matches/job_matches_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sr Field Engineer</t>
+          <t>Associate - Data Engineer - Global Master Data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Striim</t>
+          <t>Eli Lilly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Indianapolis, IN, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Kubernetes, Git, Snowflake, Databricks, BigQuery, Kafka, MySQL, Python</t>
+          <t>Data Scientist, RAG, Glue, Redshift, Data Lake, CI/CD, Git, Databricks, Redshift, Kafka</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9fd06b655c3730ee</t>
+          <t>https://www.indeed.com/viewjob?jk=326b602342da8867</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data Engineer II</t>
+          <t>IT Data Platform Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corteva Agriscience</t>
+          <t>National Retail Systems, Inc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, US USA</t>
+          <t>Lyndhurst, NJ, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, FastAPI, Docker, Kubernetes, Git, Databricks, PySpark, Kafka</t>
+          <t>Data Scientist, RAG, S3, Glue, Athena, CI/CD, Git, Snowflake, Power BI, Python</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=84bbb3c9d11dfa7f</t>
+          <t>https://www.indeed.com/viewjob?jk=4da5376ea9ed63ff</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Data Scientist III</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>project44</t>
+          <t>Fanatics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
+          <t>Data Scientist, Redshift, BigQuery, MLflow, Git, Snowflake, Databricks, BigQuery, Redshift, Python</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,24 +571,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2ad7acbb70aad17a</t>
+          <t>https://www.indeed.com/viewjob?jk=a21ec81d7d224fd0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Full Stack Magento Developer – Remote (Canada)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>project44</t>
+          <t>Jarvis Recruitment</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
+          <t>RAG, Prompt Engineering, Docker, CI/CD, Jenkins, GitHub Actions, Git, MySQL, SQL, R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=166c9d26347adcb3</t>
+          <t>https://www.indeed.com/viewjob?jk=5e6328c1040c5967</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior AI Engineer</t>
+          <t>Analytics Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Medica Services Company LLC</t>
+          <t>RollKall</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minnetonka, MN, US USA</t>
+          <t>Irving, TX, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Docker, GitHub Actions, Terraform, Git, Python</t>
+          <t>RAG, Dataflow, Git, Tableau, Power BI, Python, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,24 +641,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a79da7779f52d4b3</t>
+          <t>https://www.indeed.com/viewjob?jk=68db2c37ad6b9984</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kentan Staffing Solutions</t>
+          <t>Transflo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Melbourne, FL, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -666,7 +666,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kubernetes, CI/CD, Terraform, Git, MongoDB, NoSQL, SQL, R, Java, Scala</t>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, RAG, Prompt Engineering, MLflow, CI/CD, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ba7c1453cd1512f5</t>
+          <t>https://www.indeed.com/viewjob?jk=366c91c1a2a15b5c</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Junior Software Engineer</t>
+          <t>Machine Learning Engineer 50</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kentan Staffing Solutions</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Melbourne, FL, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Docker, Kubernetes, CI/CD, Git, MongoDB, NoSQL, Python, SQL, R, Java</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, Docker, Power BI, Python, R, Scala</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,24 +711,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=726fbe9b2b7bd3f4</t>
+          <t>https://www.indeed.com/viewjob?jk=652c1e250e125af4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Agentic AI Engineer-1</t>
+          <t>Sr. Cloud Engineer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>Transflo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Gemini, Copilot, Prompt Engineering, Python, R</t>
+          <t>S3, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python, R, Optimization</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,24 +746,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=28b1ed79dd102956</t>
+          <t>https://www.indeed.com/viewjob?jk=ce6390023da67737</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Perception Engineer - Data</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Forterra</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Arlington, VA, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R, Optimization</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, CI/CD, Python, R, Scala</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,7 +781,287 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=24a4bdf67e7eef3b</t>
+          <t>https://www.indeed.com/viewjob?jk=1c4f153b447e2441</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Software Engineer II</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Blue Origin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, Git, NoSQL, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3b3a27f0f05bdbda</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Senior Salesforce Tableau Developer - Sales Focused</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ferguson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RAG, Synapse, Git, Databricks, Tableau, Power BI, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e85774318b17a840</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Specialist - Architecture</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LTIMindtree</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8dfb9f688fa2bf88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Specialist - Architecture</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LTIMindtree</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b882e08a5c9eb997</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Specialist - Architecture</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LTIMindtree</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e18794724c7fb0b4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Specialist - Architecture</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LTIMindtree</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=baa2a66d4c015d1f</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Specialist - Architecture</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LTIMindtree</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ba86dc84f904b800</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bioinformatics Software Engineer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Harvard University</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Boston, MA, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>RAG, S3, EC2, Docker, CI/CD, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8d28ab892406e1df</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-23.xlsx
+++ b/daily_matches/job_matches_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Associate - Data Engineer - Global Master Data</t>
+          <t>GenAI Architect</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eli Lilly</t>
+          <t>Tata Consultancy Services (TCS)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, US USA</t>
+          <t>Edison, NJ, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.6</v>
+        <v>24.4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Glue, Redshift, Data Lake, CI/CD, Git, Databricks, Redshift, Kafka</t>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Hugging Face, Pinecone, TensorFlow, PyTorch, S3, Data Lake</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=326b602342da8867</t>
+          <t>https://www.indeed.com/viewjob?jk=e014fe941f1f22ec</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IT Data Platform Engineer</t>
+          <t>Senior Data Engineer (1043) - DataSF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>National Retail Systems, Inc</t>
+          <t>City and County of San Francisco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lyndhurst, NJ, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, S3, Glue, Athena, CI/CD, Git, Snowflake, Power BI, Python</t>
+          <t>Data Scientist, RAG, BigQuery, Kinesis, Terraform, Snowflake, Databricks, BigQuery, PySpark, Kafka</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,24 +536,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4da5376ea9ed63ff</t>
+          <t>https://www.indeed.com/viewjob?jk=012bacb5fe848397</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Scientist III</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fanatics</t>
+          <t>kp reddy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, Redshift, BigQuery, MLflow, Git, Snowflake, Databricks, BigQuery, Redshift, Python</t>
+          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a21ec81d7d224fd0</t>
+          <t>https://www.indeed.com/viewjob?jk=31ba26cff0eff16a</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Full Stack Magento Developer – Remote (Canada)</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jarvis Recruitment</t>
+          <t>kp reddy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, Prompt Engineering, Docker, CI/CD, Jenkins, GitHub Actions, Git, MySQL, SQL, R</t>
+          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5e6328c1040c5967</t>
+          <t>https://www.indeed.com/viewjob?jk=dce2730f22d939ec</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Analytics Engineer</t>
+          <t>Senior Software Engineer New</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RollKall</t>
+          <t>Convey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Irving, TX, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.1</v>
+        <v>14.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, Dataflow, Git, Tableau, Power BI, Python, SQL, R, Scala, Optimization</t>
+          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=68db2c37ad6b9984</t>
+          <t>https://www.indeed.com/viewjob?jk=f5324f4c6c59141c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Software Engineer New</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transflo</t>
+          <t>Convey</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>14.4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, Generative AI, RAG, Prompt Engineering, MLflow, CI/CD, R, Scala, Optimization</t>
+          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=366c91c1a2a15b5c</t>
+          <t>https://www.indeed.com/viewjob?jk=121b212372d04928</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer 50</t>
+          <t>Senior Software Engineer - AI, Building Design</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adobe</t>
+          <t>kp reddy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>San Jose, CA, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.1</v>
+        <v>14.4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, Docker, Power BI, Python, R, Scala</t>
+          <t>AI Engineer, Generative AI, PyTorch, YOLO, AWS SageMaker, Azure ML, MLflow, Docker, Kubernetes, Python</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=652c1e250e125af4</t>
+          <t>https://www.indeed.com/viewjob?jk=c1a9a570fd3e2cff</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sr. Cloud Engineer</t>
+          <t>Senior Software Engineer - AI, Building Design</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transflo</t>
+          <t>kp reddy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>S3, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python, R, Optimization</t>
+          <t>AI Engineer, Generative AI, PyTorch, YOLO, AWS SageMaker, Azure ML, MLflow, Docker, Kubernetes, Python</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,32 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ce6390023da67737</t>
+          <t>https://www.indeed.com/viewjob?jk=30cf3c854ab272eb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Senior Software Engineer - AI, Building Design</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adobe</t>
+          <t>kp reddy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>San Jose, CA, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, CI/CD, Python, R, Scala</t>
+          <t>AI Engineer, Generative AI, PyTorch, YOLO, AWS SageMaker, Azure ML, MLflow, Docker, Kubernetes, Python</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,32 +781,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1c4f153b447e2441</t>
+          <t>https://www.indeed.com/viewjob?jk=e50a761ac02df3ba</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Software Engineer II</t>
+          <t>Software Engineer – CRG (Analyst / Associate)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Blue Origin</t>
+          <t>Goldman Sachs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RAG, CI/CD, Git, NoSQL, Python, SQL, R, Java, Scala</t>
+          <t>LangChain, RAG, Prompt Engineering, Kubernetes, CI/CD, Git, Kafka, MongoDB, Python, SQL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,32 +816,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3b3a27f0f05bdbda</t>
+          <t>https://www.indeed.com/viewjob?jk=ca332a980655e235</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Salesforce Tableau Developer - Sales Focused</t>
+          <t>Software Engineer - Full Stack</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ferguson</t>
+          <t>kp reddy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RAG, Synapse, Git, Databricks, Tableau, Power BI, SQL, R, Scala</t>
+          <t>RAG, Docker, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, MySQL, Python, SQL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,32 +851,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e85774318b17a840</t>
+          <t>https://www.indeed.com/viewjob?jk=15451134c42bdf64</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Specialist - Architecture</t>
+          <t>Software Engineer - Full Stack</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LTIMindtree</t>
+          <t>kp reddy</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+          <t>RAG, Docker, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, MySQL, Python, SQL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,67 +886,67 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8dfb9f688fa2bf88</t>
+          <t>https://www.indeed.com/viewjob?jk=a3288093ad8485f4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Specialist - Architecture</t>
+          <t>Data Engineer - ITS4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LTIMindtree</t>
+          <t>State of Minnesota - Minnesota IT Services</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Saint Paul, MN, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+          <t>RAG, S3, Glue, Redshift, Data Lake, Git, Redshift, PySpark, NoSQL, Python</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b882e08a5c9eb997</t>
+          <t>https://www.indeed.com/viewjob?jk=54c8deff754c16fa</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Specialist - Architecture</t>
+          <t>Associate Data Scientist</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LTIMindtree</t>
+          <t>MetLife</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Cary, NC, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+          <t>Data Scientist, Generative AI, RAG, Copilot, Prompt Engineering, TensorFlow, PyTorch, spaCy, Git, Python</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,32 +956,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e18794724c7fb0b4</t>
+          <t>https://www.indeed.com/viewjob?jk=916958a0f37fc7ab</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Specialist - Architecture</t>
+          <t>AI Platform Engineer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LTIMindtree</t>
+          <t>OrderlyMeds</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+          <t>AI Engineer, RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -991,32 +991,32 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=baa2a66d4c015d1f</t>
+          <t>https://www.indeed.com/viewjob?jk=4bdae7064fd5dc6f</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Specialist - Architecture</t>
+          <t>Applied AI Engineer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LTIMindtree</t>
+          <t>Propio LS LLC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Overland Park, KS, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, LLaMA, Pinecone, Prompt Engineering, Python, R, Java, Hypothesis Testing</t>
+          <t>AI Engineer, LangChain, Hugging Face, FAISS, Pinecone, Prompt Engineering, FastAPI, Python, R, Scala</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1026,42 +1026,217 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ba86dc84f904b800</t>
+          <t>https://www.indeed.com/viewjob?jk=3055ad914d70d64e</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bioinformatics Software Engineer</t>
+          <t>AI Developer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Harvard University</t>
+          <t>Bourns</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Carrollton, TX, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>LangChain, RAG, LLaMA, Prompt Engineering, FastAPI, Kubernetes, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6ed224a6ba5ee451</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Data Scientist Subcontractor</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>The Hackett Group</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FL, US USA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, LLaMA, Hugging Face, TensorFlow, PyTorch, XGBoost, Python, R</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=84b99efc2d74d07c</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jr. Software Developer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Buyers Edge Platform</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>RAG, S3, EC2, Docker, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=8d28ab892406e1df</t>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>RAG, S3, EC2, CI/CD, Git, MySQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=90037e7aa244c1c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Machine Learning Researcher</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rivet Industries</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=756a548f7b63644b</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Compliance, Dallas, Associate, Software Engineering</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, MongoDB, NoSQL, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ead7d1da7f34ba0a</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MLOps Engineer</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ValueBase Consulting</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ann Arbor, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Azure ML, Docker, Kubernetes, CI/CD, Jenkins, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a39342bfa0110d52</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-23.xlsx
+++ b/daily_matches/job_matches_2026-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GenAI Architect</t>
+          <t>Java Full Stack AI Engineer (Senior Software Engineer)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services (TCS)</t>
+          <t>LTIMindtree</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Edison, NJ, US USA</t>
+          <t>Tampa, FL, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, RAG, LLaMA, Hugging Face, Pinecone, TensorFlow, PyTorch, S3, Data Lake</t>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Gemini, Copilot, Pinecone, Prompt Engineering, Kinesis, Docker</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e014fe941f1f22ec</t>
+          <t>https://www.indeed.com/viewjob?jk=8915b5aa273f1b5b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Data Engineer (1043) - DataSF</t>
+          <t>AI Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>City and County of San Francisco</t>
+          <t>Mount Tech</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>La Jolla, CA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.7</v>
+        <v>21.1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, BigQuery, Kinesis, Terraform, Snowflake, Databricks, BigQuery, PySpark, Kafka</t>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Copilot, Pinecone, Prompt Engineering, TensorFlow, PyTorch, FastAPI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=012bacb5fe848397</t>
+          <t>https://www.indeed.com/viewjob?jk=ba4cb3da56fe3cf3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kp reddy</t>
+          <t>Mariner Wealth Advisors</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Overland Park, KS, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15.6</v>
+        <v>17.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git</t>
+          <t>RAG, Cortex, S3, Redshift, FastAPI, CI/CD, Terraform, Git, Snowflake, Databricks</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,24 +571,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=31ba26cff0eff16a</t>
+          <t>https://www.indeed.com/viewjob?jk=074ebeab3093055c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>kp reddy</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>Chesterfield, MO, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=dce2730f22d939ec</t>
+          <t>https://www.indeed.com/viewjob?jk=65d238209415bd35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Software Engineer New</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Convey</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Jacksonville, FL, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f5324f4c6c59141c</t>
+          <t>https://www.indeed.com/viewjob?jk=08527261a275aa62</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Software Engineer New</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Convey</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Lewisville, TX, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, MongoDB, NoSQL, SQL</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=121b212372d04928</t>
+          <t>https://www.indeed.com/viewjob?jk=dc66fc514f39b781</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - AI, Building Design</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>kp reddy</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>Boise, ID, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, PyTorch, YOLO, AWS SageMaker, Azure ML, MLflow, Docker, Kubernetes, Python</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c1a9a570fd3e2cff</t>
+          <t>https://www.indeed.com/viewjob?jk=003cc1fe2c6f4d82</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - AI, Building Design</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kp reddy</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, PyTorch, YOLO, AWS SageMaker, Azure ML, MLflow, Docker, Kubernetes, Python</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,32 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=30cf3c854ab272eb</t>
+          <t>https://www.indeed.com/viewjob?jk=ceeb3d3f63ddd02b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - AI, Building Design</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kp reddy</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Chesterfield, MO, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, PyTorch, YOLO, AWS SageMaker, Azure ML, MLflow, Docker, Kubernetes, Python</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,32 +781,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e50a761ac02df3ba</t>
+          <t>https://www.indeed.com/viewjob?jk=6394fdb64160187b</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Software Engineer – CRG (Analyst / Associate)</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Goldman Sachs</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>Lewisville, TX, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LangChain, RAG, Prompt Engineering, Kubernetes, CI/CD, Git, Kafka, MongoDB, Python, SQL</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,32 +816,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ca332a980655e235</t>
+          <t>https://www.indeed.com/viewjob?jk=4bf2ba0a6a2d2ef7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Software Engineer - Full Stack</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kp reddy</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>Boise, ID, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RAG, Docker, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, MySQL, Python, SQL</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,32 +851,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=15451134c42bdf64</t>
+          <t>https://www.indeed.com/viewjob?jk=6c579e60e29085a0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Software Engineer - Full Stack</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>kp reddy</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RAG, Docker, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, MySQL, Python, SQL</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,67 +886,67 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a3288093ad8485f4</t>
+          <t>https://www.indeed.com/viewjob?jk=9566bb3277fc5b3e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Data Engineer - ITS4</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>State of Minnesota - Minnesota IT Services</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Saint Paul, MN, US USA</t>
+          <t>Rogers, AR, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, S3, Glue, Redshift, Data Lake, Git, Redshift, PySpark, NoSQL, Python</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=54c8deff754c16fa</t>
+          <t>https://www.indeed.com/viewjob?jk=8b988c6d60df206b</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Associate Data Scientist</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MetLife</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cary, NC, US USA</t>
+          <t>Jacksonville, FL, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, Copilot, Prompt Engineering, TensorFlow, PyTorch, spaCy, Git, Python</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,32 +956,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=916958a0f37fc7ab</t>
+          <t>https://www.indeed.com/viewjob?jk=40ae88bd702dcb13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AI Platform Engineer</t>
+          <t>AI/Machine Learning Data Engineer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OrderlyMeds</t>
+          <t>Acosta Group</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Rogers, AR, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.2</v>
+        <v>15.6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Python, R, Scala</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Copilot, Azure ML, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -991,32 +991,32 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4bdae7064fd5dc6f</t>
+          <t>https://www.indeed.com/viewjob?jk=e490a596b2e349ab</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Applied AI Engineer</t>
+          <t>Software Engineer II</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Propio LS LLC</t>
+          <t>Fanatics</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Overland Park, KS, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, Hugging Face, FAISS, Pinecone, Prompt Engineering, FastAPI, Python, R, Scala</t>
+          <t>Data Scientist, RAG, S3, Redshift, Kinesis, CI/CD, Git, Redshift, Kafka, MongoDB</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1026,32 +1026,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3055ad914d70d64e</t>
+          <t>https://www.indeed.com/viewjob?jk=1be8fdec648472af</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AI Developer</t>
+          <t>Senior Software Engineer - Generative AI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bourns</t>
+          <t>Acuity Insurance</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Carrollton, TX, US USA</t>
+          <t>Sheboygan, WI, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LangChain, RAG, LLaMA, Prompt Engineering, FastAPI, Kubernetes, Git, Python, R, Scala</t>
+          <t>Generative AI, LangChain, RAG, Prompt Engineering, CI/CD, PostgreSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1061,32 +1061,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6ed224a6ba5ee451</t>
+          <t>https://www.indeed.com/viewjob?jk=56a8c0e45b588390</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Data Scientist Subcontractor</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Hackett Group</t>
+          <t>Pacific Community Ventures</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FL, US USA</t>
+          <t>Oakland, CA, US USA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, LangChain, LLaMA, Hugging Face, TensorFlow, PyTorch, XGBoost, Python, R</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, CI/CD, Git, NoSQL, Tableau, Python, SQL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1096,32 +1096,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=84b99efc2d74d07c</t>
+          <t>https://www.indeed.com/viewjob?jk=0447d34a5a96e2c3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jr. Software Developer</t>
+          <t>AI Engineer Mid-SR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Buyers Edge Platform</t>
+          <t>Metova</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>PR, US USA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, CI/CD, Git, MySQL, SQL, R, Java</t>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Pinecone, FastAPI, Docker, Kubernetes, CI/CD, Python</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1131,32 +1131,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=90037e7aa244c1c1</t>
+          <t>https://www.indeed.com/viewjob?jk=accbd77f01ca5cfb</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Machine Learning Researcher</t>
+          <t>ML Ops Engineer II</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rivet Industries</t>
+          <t>Early Warning Services</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>San Jose, CA, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R, Scala, Optimization</t>
+          <t>Data Scientist, RAG, MLflow, Docker, Kubernetes, CI/CD, Git, Hadoop, Python, R</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1166,32 +1166,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=756a548f7b63644b</t>
+          <t>https://www.indeed.com/viewjob?jk=1bb70d7640bf48cc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Compliance, Dallas, Associate, Software Engineering</t>
+          <t>Sr Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Goldman Sachs</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>Lake Buena Vista, FL, US USA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, MongoDB, NoSQL, Python, SQL, R, Java, Scala</t>
+          <t>AI Engineer, Machine Learning Engineer, RAG, TensorFlow, PyTorch, Docker, Kubernetes, Git, Python, R</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1201,42 +1201,602 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ead7d1da7f34ba0a</t>
+          <t>https://www.indeed.com/viewjob?jk=fc65c03a732fa6c9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MLOps Engineer</t>
+          <t>Enterprise Data Architect</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ValueBase Consulting</t>
+          <t>IvoryCloud</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ann Arbor, MI, US USA</t>
+          <t>Rockville, MD, US USA</t>
         </is>
       </c>
       <c r="D23" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RAG, Redshift, Data Lake, CI/CD, Snowflake, Databricks, Redshift, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=180dbcd7c9c036ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Specialist, Data Engineer</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nationwide Mutual Insurance Company</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Columbus, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, CI/CD, Jenkins, Git, Snowflake, Databricks, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f15a9458813e7e74</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Indeed</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Hadoop, Tableau, Power BI, Matplotlib, Seaborn, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2ae3389e17a7f4d6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Applied AI Engineer</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>propio</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Overland Park, KS, US USA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AI Engineer, LangChain, Hugging Face, FAISS, Pinecone, Prompt Engineering, FastAPI, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=223e2d3d1d722fdd</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Solutions Architect</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Interworks</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Oklahoma City, OK, US USA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Glue, Redshift, BigQuery, Snowflake, Databricks, BigQuery, Redshift, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ae3df7fdbe227203</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Solutions Architect</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Interworks</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Stillwater, OK, US USA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Glue, Redshift, BigQuery, Snowflake, Databricks, BigQuery, Redshift, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b2227ed8fd327afa</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Solutions Architect</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Interworks</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Raleigh, NC, US USA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Glue, Redshift, BigQuery, Snowflake, Databricks, BigQuery, Redshift, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a40f1918af374ac1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Solutions Architect</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Interworks</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tulsa, OK, US USA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Glue, Redshift, BigQuery, Snowflake, Databricks, BigQuery, Redshift, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b65ec0cc7ed25eda</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Risk Adjustment Sr. Data Analyst - Remote</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Datavant</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>10</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Azure ML, Docker, Kubernetes, CI/CD, Jenkins, Python, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a39342bfa0110d52</t>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RAG, Snowflake, Databricks, Tableau, Power BI, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6d255eff083655ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Data Scientist/AI Trainer</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Five9</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Prompt Engineering, TensorFlow, PyTorch, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=0d85ec88c21eba2c</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Senior QA Engineer</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Care.com</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Salt Lake City, UT, US USA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, Jenkins, GitHub Actions, Git, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=22b669fc82caea43</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Senior QA Engineer</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Care.com</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, Jenkins, GitHub Actions, Git, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4acc2278c1957139</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Senior QA Engineer</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Care.com</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, Jenkins, GitHub Actions, Git, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=9870ae11a2356e86</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Architect, Service &amp; Operational Data</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Thomson Reuters</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Eagan, MN, US USA</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>RAG, Kinesis, CI/CD, Git, Kafka, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c82df1ac5ad3ee0a</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ipsos</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Culver City, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Git, Python, SQL, R, Java, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7b2acc4634dfe573</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Senior Big Data Engineer</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Highmark Health</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PA, US USA</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AI Engineer, Data Scientist, Git, Kafka, Tableau, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e566377201b9121f</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Security Software Developer</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vidoori</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Hyattsville, MD, US USA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, CI/CD, Git, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=073709b581c90d36</t>
         </is>
       </c>
     </row>
